--- a/Prinzip_Rate.xlsx
+++ b/Prinzip_Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F3E044-5680-4482-9F62-A49313CCFA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6EC63-050D-4DC4-A548-C3807099756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6F6DF102-31EC-4321-B429-CF2B07B9F3B4}"/>
   </bookViews>
@@ -395,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -928,12 +928,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1291,6 +1306,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1730,18 +1748,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="171"/>
       <c r="K1" s="121" t="s">
         <v>22</v>
       </c>
@@ -2289,10 +2307,10 @@
         <f t="shared" si="5"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O8" s="160" t="s">
+      <c r="O8" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="161"/>
+      <c r="P8" s="162"/>
       <c r="Q8" s="76">
         <f>SUM(Q3:Q7)</f>
         <v>7</v>
@@ -2301,10 +2319,10 @@
         <f>SUM(R3:R7)</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="T8" s="162" t="s">
+      <c r="T8" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="163"/>
+      <c r="U8" s="164"/>
       <c r="V8" s="77">
         <f>SUM(V3:V7)</f>
         <v>10</v>
@@ -3028,10 +3046,10 @@
         <f t="shared" si="5"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O20" s="164" t="s">
+      <c r="O20" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="165"/>
+      <c r="P20" s="166"/>
       <c r="Q20" s="85">
         <f>SUM(Q15:Q19)</f>
         <v>30</v>
@@ -3040,10 +3058,10 @@
         <f>SUM(R15:R19)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="T20" s="166" t="s">
+      <c r="T20" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="U20" s="167"/>
+      <c r="U20" s="168"/>
       <c r="V20" s="91">
         <f>SUM(V15:V19)</f>
         <v>30</v>
@@ -3756,10 +3774,10 @@
         <f t="shared" si="5"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O32" s="156" t="s">
+      <c r="O32" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="157"/>
+      <c r="P32" s="158"/>
       <c r="Q32" s="81">
         <f>SUM(Q27:Q31)</f>
         <v>3</v>
@@ -3768,10 +3786,10 @@
         <f>SUM(R27:R31)</f>
         <v>0.1</v>
       </c>
-      <c r="T32" s="158" t="s">
+      <c r="T32" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U32" s="159"/>
+      <c r="U32" s="160"/>
       <c r="V32" s="94">
         <f>SUM(V27:V31)</f>
         <v>28</v>
@@ -3852,18 +3870,18 @@
       <c r="M34" s="96"/>
     </row>
     <row r="35" spans="1:23" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="168" t="s">
+      <c r="A35" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="170"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="171"/>
       <c r="K35" s="121" t="s">
         <v>22</v>
       </c>
@@ -4366,10 +4384,10 @@
         <f t="shared" si="16"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O42" s="160" t="s">
+      <c r="O42" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P42" s="161"/>
+      <c r="P42" s="162"/>
       <c r="Q42" s="76">
         <f>SUM(Q37:Q41)</f>
         <v>2</v>
@@ -4378,10 +4396,10 @@
         <f>SUM(R37:R41)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="T42" s="162" t="s">
+      <c r="T42" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="U42" s="163"/>
+      <c r="U42" s="164"/>
       <c r="V42" s="77">
         <f>SUM(V37:V41)</f>
         <v>12</v>
@@ -5104,10 +5122,10 @@
         <f t="shared" si="16"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O54" s="164" t="s">
+      <c r="O54" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="P54" s="165"/>
+      <c r="P54" s="166"/>
       <c r="Q54" s="85">
         <f>SUM(Q49:Q53)</f>
         <v>30</v>
@@ -5116,10 +5134,10 @@
         <f>SUM(R49:R53)</f>
         <v>1</v>
       </c>
-      <c r="T54" s="166" t="s">
+      <c r="T54" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="U54" s="167"/>
+      <c r="U54" s="168"/>
       <c r="V54" s="91">
         <f>SUM(V49:V53)</f>
         <v>29</v>
@@ -5842,10 +5860,10 @@
         <f t="shared" si="16"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O66" s="156" t="s">
+      <c r="O66" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="157"/>
+      <c r="P66" s="158"/>
       <c r="Q66" s="81">
         <f>SUM(Q61:Q65)</f>
         <v>2</v>
@@ -5854,10 +5872,10 @@
         <f>SUM(R61:R65)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="T66" s="158" t="s">
+      <c r="T66" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U66" s="159"/>
+      <c r="U66" s="160"/>
       <c r="V66" s="94">
         <f>SUM(V61:V65)</f>
         <v>20</v>
@@ -5938,18 +5956,18 @@
       <c r="M68" s="96"/>
     </row>
     <row r="69" spans="1:23" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="168" t="s">
+      <c r="A69" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="169"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="169"/>
-      <c r="E69" s="169"/>
-      <c r="F69" s="169"/>
-      <c r="G69" s="169"/>
-      <c r="H69" s="169"/>
-      <c r="I69" s="169"/>
-      <c r="J69" s="170"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="170"/>
+      <c r="F69" s="170"/>
+      <c r="G69" s="170"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
+      <c r="J69" s="171"/>
       <c r="K69" s="121" t="s">
         <v>22</v>
       </c>
@@ -6448,10 +6466,10 @@
         <f t="shared" si="36"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O76" s="160" t="s">
+      <c r="O76" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="161"/>
+      <c r="P76" s="162"/>
       <c r="Q76" s="76">
         <f>SUM(Q71:Q75)</f>
         <v>1</v>
@@ -6460,10 +6478,10 @@
         <f>SUM(R71:R75)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T76" s="162" t="s">
+      <c r="T76" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="U76" s="163"/>
+      <c r="U76" s="164"/>
       <c r="V76" s="77">
         <f>SUM(V71:V75)</f>
         <v>17</v>
@@ -7195,10 +7213,10 @@
         <f>SUM(R83:R87)</f>
         <v>1</v>
       </c>
-      <c r="T88" s="166" t="s">
+      <c r="T88" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="U88" s="167"/>
+      <c r="U88" s="168"/>
       <c r="V88" s="91">
         <f>SUM(V83:V87)</f>
         <v>25</v>
@@ -7921,10 +7939,10 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="O100" s="156" t="s">
+      <c r="O100" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P100" s="157"/>
+      <c r="P100" s="158"/>
       <c r="Q100" s="81">
         <f>SUM(Q95:Q99)</f>
         <v>1</v>
@@ -7933,10 +7951,10 @@
         <f>SUM(R95:R99)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T100" s="158" t="s">
+      <c r="T100" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U100" s="159"/>
+      <c r="U100" s="160"/>
       <c r="V100" s="94">
         <f>SUM(V95:V99)</f>
         <v>22</v>
@@ -8017,18 +8035,18 @@
       <c r="M102" s="96"/>
     </row>
     <row r="103" spans="1:23" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="168" t="s">
+      <c r="A103" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="169"/>
-      <c r="C103" s="169"/>
-      <c r="D103" s="169"/>
-      <c r="E103" s="169"/>
-      <c r="F103" s="169"/>
-      <c r="G103" s="169"/>
-      <c r="H103" s="169"/>
-      <c r="I103" s="169"/>
-      <c r="J103" s="170"/>
+      <c r="B103" s="170"/>
+      <c r="C103" s="170"/>
+      <c r="D103" s="170"/>
+      <c r="E103" s="170"/>
+      <c r="F103" s="170"/>
+      <c r="G103" s="170"/>
+      <c r="H103" s="170"/>
+      <c r="I103" s="170"/>
+      <c r="J103" s="171"/>
       <c r="K103" s="121" t="s">
         <v>22</v>
       </c>
@@ -8531,10 +8549,10 @@
         <f t="shared" si="55"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O110" s="160" t="s">
+      <c r="O110" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P110" s="161"/>
+      <c r="P110" s="162"/>
       <c r="Q110" s="76">
         <f>SUM(Q105:Q109)</f>
         <v>0</v>
@@ -8543,10 +8561,10 @@
         <f>SUM(R105:R109)</f>
         <v>0</v>
       </c>
-      <c r="T110" s="162" t="s">
+      <c r="T110" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="U110" s="163"/>
+      <c r="U110" s="164"/>
       <c r="V110" s="77">
         <f>SUM(V105:V109)</f>
         <v>20</v>
@@ -9269,10 +9287,10 @@
         <f t="shared" si="55"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O122" s="164" t="s">
+      <c r="O122" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="P122" s="165"/>
+      <c r="P122" s="166"/>
       <c r="Q122" s="85">
         <f>SUM(Q117:Q121)</f>
         <v>30</v>
@@ -9281,10 +9299,10 @@
         <f>SUM(R117:R121)</f>
         <v>1</v>
       </c>
-      <c r="T122" s="166" t="s">
+      <c r="T122" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="U122" s="167"/>
+      <c r="U122" s="168"/>
       <c r="V122" s="91">
         <f>SUM(V117:V121)</f>
         <v>30</v>
@@ -10007,10 +10025,10 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="O134" s="156" t="s">
+      <c r="O134" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P134" s="157"/>
+      <c r="P134" s="158"/>
       <c r="Q134" s="81">
         <f>SUM(Q129:Q133)</f>
         <v>0</v>
@@ -10019,10 +10037,10 @@
         <f>SUM(R129:R133)</f>
         <v>0</v>
       </c>
-      <c r="T134" s="158" t="s">
+      <c r="T134" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U134" s="159"/>
+      <c r="U134" s="160"/>
       <c r="V134" s="94">
         <f>SUM(V129:V133)</f>
         <v>28</v>
@@ -10103,18 +10121,18 @@
       <c r="M136" s="96"/>
     </row>
     <row r="137" spans="1:23" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="168" t="s">
+      <c r="A137" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="B137" s="169"/>
-      <c r="C137" s="169"/>
-      <c r="D137" s="169"/>
-      <c r="E137" s="169"/>
-      <c r="F137" s="169"/>
-      <c r="G137" s="169"/>
-      <c r="H137" s="169"/>
-      <c r="I137" s="169"/>
-      <c r="J137" s="170"/>
+      <c r="B137" s="170"/>
+      <c r="C137" s="170"/>
+      <c r="D137" s="170"/>
+      <c r="E137" s="170"/>
+      <c r="F137" s="170"/>
+      <c r="G137" s="170"/>
+      <c r="H137" s="170"/>
+      <c r="I137" s="170"/>
+      <c r="J137" s="171"/>
       <c r="K137" s="121" t="s">
         <v>22</v>
       </c>
@@ -10617,10 +10635,10 @@
         <f t="shared" si="72"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O144" s="160" t="s">
+      <c r="O144" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P144" s="161"/>
+      <c r="P144" s="162"/>
       <c r="Q144" s="76">
         <f>SUM(Q139:Q143)</f>
         <v>0</v>
@@ -10629,10 +10647,10 @@
         <f>SUM(R139:R143)</f>
         <v>0</v>
       </c>
-      <c r="T144" s="162" t="s">
+      <c r="T144" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="U144" s="163"/>
+      <c r="U144" s="164"/>
       <c r="V144" s="77">
         <f>SUM(V139:V143)</f>
         <v>16</v>
@@ -11355,10 +11373,10 @@
         <f t="shared" si="72"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O156" s="164" t="s">
+      <c r="O156" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="P156" s="165"/>
+      <c r="P156" s="166"/>
       <c r="Q156" s="85">
         <f>SUM(Q151:Q155)</f>
         <v>30</v>
@@ -11367,10 +11385,10 @@
         <f>SUM(R151:R155)</f>
         <v>1</v>
       </c>
-      <c r="T156" s="166" t="s">
+      <c r="T156" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="U156" s="167"/>
+      <c r="U156" s="168"/>
       <c r="V156" s="91">
         <f>SUM(V151:V155)</f>
         <v>30</v>
@@ -12093,10 +12111,10 @@
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="O168" s="156" t="s">
+      <c r="O168" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P168" s="157"/>
+      <c r="P168" s="158"/>
       <c r="Q168" s="81">
         <f>SUM(Q163:Q167)</f>
         <v>0</v>
@@ -12105,10 +12123,10 @@
         <f>SUM(R163:R167)</f>
         <v>0</v>
       </c>
-      <c r="T168" s="158" t="s">
+      <c r="T168" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U168" s="159"/>
+      <c r="U168" s="160"/>
       <c r="V168" s="94">
         <f>SUM(V163:V167)</f>
         <v>27</v>
@@ -12189,18 +12207,18 @@
       <c r="M170" s="96"/>
     </row>
     <row r="171" spans="1:23" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="168" t="s">
+      <c r="A171" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B171" s="169"/>
-      <c r="C171" s="169"/>
-      <c r="D171" s="169"/>
-      <c r="E171" s="169"/>
-      <c r="F171" s="169"/>
-      <c r="G171" s="169"/>
-      <c r="H171" s="169"/>
-      <c r="I171" s="169"/>
-      <c r="J171" s="170"/>
+      <c r="B171" s="170"/>
+      <c r="C171" s="170"/>
+      <c r="D171" s="170"/>
+      <c r="E171" s="170"/>
+      <c r="F171" s="170"/>
+      <c r="G171" s="170"/>
+      <c r="H171" s="170"/>
+      <c r="I171" s="170"/>
+      <c r="J171" s="171"/>
       <c r="K171" s="121" t="s">
         <v>22</v>
       </c>
@@ -12703,10 +12721,10 @@
         <f t="shared" si="90"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O178" s="160" t="s">
+      <c r="O178" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P178" s="161"/>
+      <c r="P178" s="162"/>
       <c r="Q178" s="76">
         <f>SUM(Q173:Q177)</f>
         <v>1</v>
@@ -12715,10 +12733,10 @@
         <f>SUM(R173:R177)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T178" s="162" t="s">
+      <c r="T178" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="U178" s="163"/>
+      <c r="U178" s="164"/>
       <c r="V178" s="77">
         <f>SUM(V173:V177)</f>
         <v>26</v>
@@ -13439,10 +13457,10 @@
         <f t="shared" si="90"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O190" s="164" t="s">
+      <c r="O190" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="P190" s="165"/>
+      <c r="P190" s="166"/>
       <c r="Q190" s="85">
         <f>SUM(Q185:Q189)</f>
         <v>30</v>
@@ -13451,10 +13469,10 @@
         <f>SUM(R185:R189)</f>
         <v>1</v>
       </c>
-      <c r="T190" s="166" t="s">
+      <c r="T190" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="U190" s="167"/>
+      <c r="U190" s="168"/>
       <c r="V190" s="91">
         <f>SUM(V185:V189)</f>
         <v>29</v>
@@ -14177,10 +14195,10 @@
         <f t="shared" si="90"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O202" s="156" t="s">
+      <c r="O202" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P202" s="157"/>
+      <c r="P202" s="158"/>
       <c r="Q202" s="81">
         <f>SUM(Q197:Q201)</f>
         <v>0</v>
@@ -14189,10 +14207,10 @@
         <f>SUM(R197:R201)</f>
         <v>0</v>
       </c>
-      <c r="T202" s="158" t="s">
+      <c r="T202" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U202" s="159"/>
+      <c r="U202" s="160"/>
       <c r="V202" s="94">
         <f>SUM(V197:V201)</f>
         <v>28</v>
@@ -14273,18 +14291,18 @@
       <c r="M204" s="96"/>
     </row>
     <row r="205" spans="1:23" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="168" t="s">
+      <c r="A205" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B205" s="169"/>
-      <c r="C205" s="169"/>
-      <c r="D205" s="169"/>
-      <c r="E205" s="169"/>
-      <c r="F205" s="169"/>
-      <c r="G205" s="169"/>
-      <c r="H205" s="169"/>
-      <c r="I205" s="169"/>
-      <c r="J205" s="170"/>
+      <c r="B205" s="170"/>
+      <c r="C205" s="170"/>
+      <c r="D205" s="170"/>
+      <c r="E205" s="170"/>
+      <c r="F205" s="170"/>
+      <c r="G205" s="170"/>
+      <c r="H205" s="170"/>
+      <c r="I205" s="170"/>
+      <c r="J205" s="171"/>
       <c r="K205" s="121" t="s">
         <v>22</v>
       </c>
@@ -14787,10 +14805,10 @@
         <f t="shared" si="109"/>
         <v/>
       </c>
-      <c r="O212" s="160" t="s">
+      <c r="O212" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P212" s="161"/>
+      <c r="P212" s="162"/>
       <c r="Q212" s="76">
         <f>SUM(Q207:Q211)</f>
         <v>5</v>
@@ -14799,10 +14817,10 @@
         <f>SUM(R207:R211)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="T212" s="162" t="s">
+      <c r="T212" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="U212" s="163"/>
+      <c r="U212" s="164"/>
       <c r="V212" s="77">
         <f>SUM(V207:V211)</f>
         <v>14</v>
@@ -15525,10 +15543,10 @@
         <f t="shared" si="109"/>
         <v>48h</v>
       </c>
-      <c r="O224" s="164" t="s">
+      <c r="O224" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="P224" s="165"/>
+      <c r="P224" s="166"/>
       <c r="Q224" s="85">
         <f>SUM(Q219:Q223)</f>
         <v>30</v>
@@ -15537,10 +15555,10 @@
         <f>SUM(R219:R223)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="T224" s="166" t="s">
+      <c r="T224" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="U224" s="167"/>
+      <c r="U224" s="168"/>
       <c r="V224" s="91">
         <f>SUM(V219:V223)</f>
         <v>28</v>
@@ -16263,10 +16281,10 @@
         <f t="shared" si="109"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O236" s="156" t="s">
+      <c r="O236" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P236" s="157"/>
+      <c r="P236" s="158"/>
       <c r="Q236" s="81">
         <f>SUM(Q231:Q235)</f>
         <v>1</v>
@@ -16275,10 +16293,10 @@
         <f>SUM(R231:R235)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T236" s="158" t="s">
+      <c r="T236" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U236" s="159"/>
+      <c r="U236" s="160"/>
       <c r="V236" s="94">
         <f>SUM(V231:V235)</f>
         <v>21</v>
@@ -16359,18 +16377,18 @@
       <c r="M238" s="96"/>
     </row>
     <row r="239" spans="1:23" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="168" t="s">
+      <c r="A239" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="B239" s="169"/>
-      <c r="C239" s="169"/>
-      <c r="D239" s="169"/>
-      <c r="E239" s="169"/>
-      <c r="F239" s="169"/>
-      <c r="G239" s="169"/>
-      <c r="H239" s="169"/>
-      <c r="I239" s="169"/>
-      <c r="J239" s="170"/>
+      <c r="B239" s="170"/>
+      <c r="C239" s="170"/>
+      <c r="D239" s="170"/>
+      <c r="E239" s="170"/>
+      <c r="F239" s="170"/>
+      <c r="G239" s="170"/>
+      <c r="H239" s="170"/>
+      <c r="I239" s="170"/>
+      <c r="J239" s="171"/>
       <c r="K239" s="121" t="s">
         <v>22</v>
       </c>
@@ -16873,10 +16891,10 @@
         <f t="shared" si="129"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O246" s="160" t="s">
+      <c r="O246" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P246" s="161"/>
+      <c r="P246" s="162"/>
       <c r="Q246" s="76">
         <f>SUM(Q241:Q245)</f>
         <v>5</v>
@@ -16885,10 +16903,10 @@
         <f>SUM(R241:R245)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="T246" s="162" t="s">
+      <c r="T246" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="U246" s="163"/>
+      <c r="U246" s="164"/>
       <c r="V246" s="77">
         <f>SUM(V241:V245)</f>
         <v>8</v>
@@ -17639,10 +17657,10 @@
         <f t="shared" si="139"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O258" s="164" t="s">
+      <c r="O258" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="P258" s="165"/>
+      <c r="P258" s="166"/>
       <c r="Q258" s="85">
         <f>SUM(Q253:Q257)</f>
         <v>30</v>
@@ -17651,10 +17669,10 @@
         <f>SUM(R253:R257)</f>
         <v>1</v>
       </c>
-      <c r="T258" s="166" t="s">
+      <c r="T258" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="U258" s="167"/>
+      <c r="U258" s="168"/>
       <c r="V258" s="91">
         <f>SUM(V253:V257)</f>
         <v>26</v>
@@ -18393,10 +18411,10 @@
         <f t="shared" si="139"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O270" s="156" t="s">
+      <c r="O270" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P270" s="157"/>
+      <c r="P270" s="158"/>
       <c r="Q270" s="81">
         <f>SUM(Q265:Q269)</f>
         <v>0</v>
@@ -18405,10 +18423,10 @@
         <f>SUM(R265:R269)</f>
         <v>0</v>
       </c>
-      <c r="T270" s="158" t="s">
+      <c r="T270" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U270" s="159"/>
+      <c r="U270" s="160"/>
       <c r="V270" s="94">
         <f>SUM(V265:V269)</f>
         <v>18</v>
@@ -18489,18 +18507,18 @@
       <c r="M272" s="96"/>
     </row>
     <row r="273" spans="1:23" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="168" t="s">
+      <c r="A273" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="B273" s="169"/>
-      <c r="C273" s="169"/>
-      <c r="D273" s="169"/>
-      <c r="E273" s="169"/>
-      <c r="F273" s="169"/>
-      <c r="G273" s="169"/>
-      <c r="H273" s="169"/>
-      <c r="I273" s="169"/>
-      <c r="J273" s="170"/>
+      <c r="B273" s="170"/>
+      <c r="C273" s="170"/>
+      <c r="D273" s="170"/>
+      <c r="E273" s="170"/>
+      <c r="F273" s="170"/>
+      <c r="G273" s="170"/>
+      <c r="H273" s="170"/>
+      <c r="I273" s="170"/>
+      <c r="J273" s="171"/>
       <c r="K273" s="121" t="s">
         <v>22</v>
       </c>
@@ -19003,10 +19021,10 @@
         <f t="shared" si="154"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O280" s="160" t="s">
+      <c r="O280" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P280" s="161"/>
+      <c r="P280" s="162"/>
       <c r="Q280" s="76">
         <f>SUM(Q275:Q279)</f>
         <v>6</v>
@@ -19015,10 +19033,10 @@
         <f>SUM(R275:R279)</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="T280" s="162" t="s">
+      <c r="T280" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="U280" s="163"/>
+      <c r="U280" s="164"/>
       <c r="V280" s="77">
         <f>SUM(V275:V279)</f>
         <v>5</v>
@@ -19740,10 +19758,10 @@
         <f t="shared" si="154"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O292" s="164" t="s">
+      <c r="O292" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="P292" s="165"/>
+      <c r="P292" s="166"/>
       <c r="Q292" s="85">
         <f>SUM(Q287:Q291)</f>
         <v>30</v>
@@ -19752,10 +19770,10 @@
         <f>SUM(R287:R291)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="T292" s="166" t="s">
+      <c r="T292" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="U292" s="167"/>
+      <c r="U292" s="168"/>
       <c r="V292" s="91">
         <f>SUM(V287:V291)</f>
         <v>20</v>
@@ -20478,10 +20496,10 @@
         <f t="shared" si="154"/>
         <v>24h/Angst</v>
       </c>
-      <c r="O304" s="156" t="s">
+      <c r="O304" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P304" s="157"/>
+      <c r="P304" s="158"/>
       <c r="Q304" s="81">
         <f>SUM(Q299:Q303)</f>
         <v>0</v>
@@ -20490,10 +20508,10 @@
         <f>SUM(R299:R303)</f>
         <v>0</v>
       </c>
-      <c r="T304" s="158" t="s">
+      <c r="T304" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U304" s="159"/>
+      <c r="U304" s="160"/>
       <c r="V304" s="94">
         <f>SUM(V299:V303)</f>
         <v>25</v>
@@ -20574,18 +20592,18 @@
       <c r="M306" s="96"/>
     </row>
     <row r="307" spans="1:23" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="168" t="s">
+      <c r="A307" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="B307" s="169"/>
-      <c r="C307" s="169"/>
-      <c r="D307" s="169"/>
-      <c r="E307" s="169"/>
-      <c r="F307" s="169"/>
-      <c r="G307" s="169"/>
-      <c r="H307" s="169"/>
-      <c r="I307" s="169"/>
-      <c r="J307" s="170"/>
+      <c r="B307" s="170"/>
+      <c r="C307" s="170"/>
+      <c r="D307" s="170"/>
+      <c r="E307" s="170"/>
+      <c r="F307" s="170"/>
+      <c r="G307" s="170"/>
+      <c r="H307" s="170"/>
+      <c r="I307" s="170"/>
+      <c r="J307" s="171"/>
       <c r="K307" s="121" t="s">
         <v>22</v>
       </c>
@@ -21088,10 +21106,10 @@
         <f t="shared" si="173"/>
         <v/>
       </c>
-      <c r="O314" s="160" t="s">
+      <c r="O314" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="P314" s="161"/>
+      <c r="P314" s="162"/>
       <c r="Q314" s="76">
         <f>SUM(Q309:Q313)</f>
         <v>4</v>
@@ -22572,10 +22590,10 @@
         <f t="shared" si="173"/>
         <v>1 Woche</v>
       </c>
-      <c r="O338" s="156" t="s">
+      <c r="O338" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="P338" s="157"/>
+      <c r="P338" s="158"/>
       <c r="Q338" s="81">
         <f>SUM(Q333:Q337)</f>
         <v>3</v>
@@ -22584,10 +22602,10 @@
         <f>SUM(R333:R337)</f>
         <v>0.1</v>
       </c>
-      <c r="T338" s="158" t="s">
+      <c r="T338" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="U338" s="159"/>
+      <c r="U338" s="160"/>
       <c r="V338" s="94">
         <f>SUM(V333:V337)</f>
         <v>22</v>
@@ -22750,8 +22768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517BECBD-2282-498B-8523-54CD5245570B}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="I258" sqref="I258"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22776,7 +22794,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -22802,7 +22820,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+      <c r="A2" s="28">
         <f>Häufigkeiten!B3</f>
         <v>0</v>
       </c>
@@ -22830,12 +22848,12 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H2" s="171" t="s">
+      <c r="H2" s="172" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="28">
         <f>Häufigkeiten!B4</f>
         <v>0</v>
       </c>
@@ -22863,10 +22881,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H3" s="172"/>
+      <c r="H3" s="173"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <f>Häufigkeiten!B5</f>
         <v>0</v>
       </c>
@@ -22894,10 +22912,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H4" s="172"/>
+      <c r="H4" s="173"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <f>Häufigkeiten!B6</f>
         <v>0</v>
       </c>
@@ -22925,10 +22943,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H5" s="172"/>
+      <c r="H5" s="173"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <f>Häufigkeiten!B7</f>
         <v>4</v>
       </c>
@@ -22956,10 +22974,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H6" s="172"/>
+      <c r="H6" s="173"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="A7" s="28">
         <f>Häufigkeiten!B8</f>
         <v>0</v>
       </c>
@@ -22987,10 +23005,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H7" s="172"/>
+      <c r="H7" s="173"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <f>Häufigkeiten!B9</f>
         <v>0</v>
       </c>
@@ -23018,10 +23036,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H8" s="172"/>
+      <c r="H8" s="173"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="28">
         <f>Häufigkeiten!B10</f>
         <v>5</v>
       </c>
@@ -23049,10 +23067,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H9" s="172"/>
+      <c r="H9" s="173"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="28">
         <f>Häufigkeiten!B11</f>
         <v>0</v>
       </c>
@@ -23080,10 +23098,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H10" s="172"/>
+      <c r="H10" s="173"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="28">
         <f>Häufigkeiten!B12</f>
         <v>0</v>
       </c>
@@ -23111,10 +23129,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H11" s="172"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="28">
         <f>Häufigkeiten!B13</f>
         <v>0</v>
       </c>
@@ -23142,10 +23160,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H12" s="172"/>
+      <c r="H12" s="173"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="28">
         <f>Häufigkeiten!B14</f>
         <v>5</v>
       </c>
@@ -23173,10 +23191,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H13" s="172"/>
+      <c r="H13" s="173"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="28">
         <f>Häufigkeiten!B15</f>
         <v>3</v>
       </c>
@@ -23204,10 +23222,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H14" s="172"/>
+      <c r="H14" s="173"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="28">
         <f>Häufigkeiten!B16</f>
         <v>0</v>
       </c>
@@ -23235,10 +23253,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H15" s="172"/>
+      <c r="H15" s="173"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="28">
         <f>Häufigkeiten!B17</f>
         <v>0</v>
       </c>
@@ -23266,10 +23284,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H16" s="172"/>
+      <c r="H16" s="173"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="28">
         <f>Häufigkeiten!B18</f>
         <v>0</v>
       </c>
@@ -23297,10 +23315,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H17" s="172"/>
+      <c r="H17" s="173"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="28">
         <f>Häufigkeiten!B19</f>
         <v>0</v>
       </c>
@@ -23328,10 +23346,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H18" s="172"/>
+      <c r="H18" s="173"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="28">
         <f>Häufigkeiten!B20</f>
         <v>0</v>
       </c>
@@ -23359,10 +23377,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H19" s="172"/>
+      <c r="H19" s="173"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="28">
         <f>Häufigkeiten!B21</f>
         <v>0</v>
       </c>
@@ -23390,10 +23408,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H20" s="172"/>
+      <c r="H20" s="173"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+      <c r="A21" s="28">
         <f>Häufigkeiten!B22</f>
         <v>0</v>
       </c>
@@ -23421,10 +23439,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H21" s="172"/>
+      <c r="H21" s="173"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+      <c r="A22" s="28">
         <f>Häufigkeiten!B23</f>
         <v>3</v>
       </c>
@@ -23452,10 +23470,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H22" s="172"/>
+      <c r="H22" s="173"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
+      <c r="A23" s="28">
         <f>Häufigkeiten!B24</f>
         <v>0</v>
       </c>
@@ -23483,10 +23501,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H23" s="172"/>
+      <c r="H23" s="173"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+      <c r="A24" s="28">
         <f>Häufigkeiten!B25</f>
         <v>0</v>
       </c>
@@ -23514,10 +23532,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H24" s="172"/>
+      <c r="H24" s="173"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="28">
         <f>Häufigkeiten!B26</f>
         <v>2</v>
       </c>
@@ -23545,10 +23563,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H25" s="172"/>
+      <c r="H25" s="173"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="27">
+      <c r="A26" s="28">
         <f>Häufigkeiten!B27</f>
         <v>0</v>
       </c>
@@ -23576,10 +23594,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H26" s="172"/>
+      <c r="H26" s="173"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="A27" s="28">
         <f>Häufigkeiten!B28</f>
         <v>0</v>
       </c>
@@ -23607,10 +23625,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H27" s="172"/>
+      <c r="H27" s="173"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="28">
         <f>Häufigkeiten!B29</f>
         <v>0</v>
       </c>
@@ -23638,10 +23656,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H28" s="172"/>
+      <c r="H28" s="173"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
+      <c r="A29" s="28">
         <f>Häufigkeiten!B30</f>
         <v>5</v>
       </c>
@@ -23669,10 +23687,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H29" s="172"/>
+      <c r="H29" s="173"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="27">
+      <c r="A30" s="28">
         <f>Häufigkeiten!B31</f>
         <v>0</v>
       </c>
@@ -23700,10 +23718,10 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H30" s="172"/>
+      <c r="H30" s="173"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="137">
+      <c r="A31" s="142">
         <f>Häufigkeiten!B32</f>
         <v>0</v>
       </c>
@@ -23731,7 +23749,7 @@
         <f>Häufigkeiten!M$1</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="H31" s="173"/>
+      <c r="H31" s="174"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
@@ -23762,7 +23780,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H32" s="171" t="s">
+      <c r="H32" s="172" t="s">
         <v>23</v>
       </c>
     </row>
@@ -23795,7 +23813,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H33" s="172"/>
+      <c r="H33" s="173"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
@@ -23826,7 +23844,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H34" s="172"/>
+      <c r="H34" s="173"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
@@ -23857,7 +23875,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H35" s="172"/>
+      <c r="H35" s="173"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
@@ -23888,7 +23906,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H36" s="172"/>
+      <c r="H36" s="173"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
@@ -23919,7 +23937,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H37" s="172"/>
+      <c r="H37" s="173"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
@@ -23950,7 +23968,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H38" s="172"/>
+      <c r="H38" s="173"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
@@ -23981,7 +23999,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H39" s="172"/>
+      <c r="H39" s="173"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
@@ -24012,7 +24030,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H40" s="172"/>
+      <c r="H40" s="173"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
@@ -24043,7 +24061,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H41" s="172"/>
+      <c r="H41" s="173"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
@@ -24074,7 +24092,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H42" s="172"/>
+      <c r="H42" s="173"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
@@ -24105,7 +24123,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H43" s="172"/>
+      <c r="H43" s="173"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
@@ -24136,7 +24154,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H44" s="172"/>
+      <c r="H44" s="173"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
@@ -24167,7 +24185,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H45" s="172"/>
+      <c r="H45" s="173"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
@@ -24198,7 +24216,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H46" s="172"/>
+      <c r="H46" s="173"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
@@ -24229,7 +24247,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H47" s="172"/>
+      <c r="H47" s="173"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
@@ -24260,7 +24278,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H48" s="172"/>
+      <c r="H48" s="173"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
@@ -24291,7 +24309,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H49" s="172"/>
+      <c r="H49" s="173"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="28">
@@ -24322,7 +24340,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H50" s="172"/>
+      <c r="H50" s="173"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
@@ -24353,7 +24371,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H51" s="172"/>
+      <c r="H51" s="173"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="28">
@@ -24384,7 +24402,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H52" s="172"/>
+      <c r="H52" s="173"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="28">
@@ -24415,7 +24433,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H53" s="172"/>
+      <c r="H53" s="173"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="28">
@@ -24446,7 +24464,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H54" s="172"/>
+      <c r="H54" s="173"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="28">
@@ -24477,7 +24495,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H55" s="172"/>
+      <c r="H55" s="173"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
@@ -24508,7 +24526,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H56" s="172"/>
+      <c r="H56" s="173"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="28">
@@ -24539,7 +24557,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H57" s="172"/>
+      <c r="H57" s="173"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="28">
@@ -24570,7 +24588,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H58" s="172"/>
+      <c r="H58" s="173"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="28">
@@ -24601,7 +24619,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H59" s="172"/>
+      <c r="H59" s="173"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="28">
@@ -24632,7 +24650,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H60" s="172"/>
+      <c r="H60" s="173"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="137">
@@ -24663,7 +24681,7 @@
         <f>Häufigkeiten!M$35</f>
         <v>0.53200000000000003</v>
       </c>
-      <c r="H61" s="173"/>
+      <c r="H61" s="174"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="28">
@@ -24694,7 +24712,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H62" s="171" t="s">
+      <c r="H62" s="172" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24727,7 +24745,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H63" s="172"/>
+      <c r="H63" s="173"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="28">
@@ -24758,7 +24776,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H64" s="172"/>
+      <c r="H64" s="173"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="28">
@@ -24789,7 +24807,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H65" s="172"/>
+      <c r="H65" s="173"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="28">
@@ -24820,7 +24838,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H66" s="172"/>
+      <c r="H66" s="173"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="28">
@@ -24851,7 +24869,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H67" s="172"/>
+      <c r="H67" s="173"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="28">
@@ -24882,7 +24900,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H68" s="172"/>
+      <c r="H68" s="173"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="28">
@@ -24913,7 +24931,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H69" s="172"/>
+      <c r="H69" s="173"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="28">
@@ -24944,7 +24962,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H70" s="172"/>
+      <c r="H70" s="173"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="28">
@@ -24975,7 +24993,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H71" s="172"/>
+      <c r="H71" s="173"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="28">
@@ -25006,7 +25024,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H72" s="172"/>
+      <c r="H72" s="173"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="28">
@@ -25037,7 +25055,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H73" s="172"/>
+      <c r="H73" s="173"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="28">
@@ -25068,7 +25086,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H74" s="172"/>
+      <c r="H74" s="173"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="28">
@@ -25099,7 +25117,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H75" s="172"/>
+      <c r="H75" s="173"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="28">
@@ -25130,7 +25148,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H76" s="172"/>
+      <c r="H76" s="173"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="28">
@@ -25161,7 +25179,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H77" s="172"/>
+      <c r="H77" s="173"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="28">
@@ -25192,7 +25210,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H78" s="172"/>
+      <c r="H78" s="173"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="28">
@@ -25223,7 +25241,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H79" s="172"/>
+      <c r="H79" s="173"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="28">
@@ -25254,7 +25272,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H80" s="172"/>
+      <c r="H80" s="173"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="28">
@@ -25285,7 +25303,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H81" s="172"/>
+      <c r="H81" s="173"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="28">
@@ -25316,7 +25334,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H82" s="172"/>
+      <c r="H82" s="173"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="28">
@@ -25347,7 +25365,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H83" s="172"/>
+      <c r="H83" s="173"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="28">
@@ -25378,7 +25396,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H84" s="172"/>
+      <c r="H84" s="173"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="28">
@@ -25409,7 +25427,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H85" s="172"/>
+      <c r="H85" s="173"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="28">
@@ -25440,7 +25458,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H86" s="172"/>
+      <c r="H86" s="173"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="28">
@@ -25471,7 +25489,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H87" s="172"/>
+      <c r="H87" s="173"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="28">
@@ -25502,7 +25520,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H88" s="172"/>
+      <c r="H88" s="173"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="28">
@@ -25533,7 +25551,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H89" s="172"/>
+      <c r="H89" s="173"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="28">
@@ -25564,7 +25582,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H90" s="172"/>
+      <c r="H90" s="173"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="137">
@@ -25595,7 +25613,7 @@
         <f>Häufigkeiten!M$69</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="H91" s="173"/>
+      <c r="H91" s="174"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="28">
@@ -25626,7 +25644,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H92" s="171" t="s">
+      <c r="H92" s="172" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25659,7 +25677,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H93" s="172"/>
+      <c r="H93" s="173"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="28">
@@ -25690,7 +25708,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H94" s="172"/>
+      <c r="H94" s="173"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="28">
@@ -25721,7 +25739,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H95" s="172"/>
+      <c r="H95" s="173"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="28">
@@ -25752,7 +25770,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H96" s="172"/>
+      <c r="H96" s="173"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="28">
@@ -25783,7 +25801,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H97" s="172"/>
+      <c r="H97" s="173"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="28">
@@ -25814,7 +25832,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H98" s="172"/>
+      <c r="H98" s="173"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="28">
@@ -25845,7 +25863,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H99" s="172"/>
+      <c r="H99" s="173"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="28">
@@ -25876,7 +25894,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H100" s="172"/>
+      <c r="H100" s="173"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="28">
@@ -25907,7 +25925,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H101" s="172"/>
+      <c r="H101" s="173"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="28">
@@ -25938,7 +25956,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H102" s="172"/>
+      <c r="H102" s="173"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="28">
@@ -25969,7 +25987,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H103" s="172"/>
+      <c r="H103" s="173"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="28">
@@ -26000,7 +26018,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H104" s="172"/>
+      <c r="H104" s="173"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="28">
@@ -26031,7 +26049,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H105" s="172"/>
+      <c r="H105" s="173"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="28">
@@ -26062,7 +26080,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H106" s="172"/>
+      <c r="H106" s="173"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="28">
@@ -26093,7 +26111,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H107" s="172"/>
+      <c r="H107" s="173"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="28">
@@ -26124,7 +26142,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H108" s="172"/>
+      <c r="H108" s="173"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="28">
@@ -26155,7 +26173,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H109" s="172"/>
+      <c r="H109" s="173"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="28">
@@ -26186,7 +26204,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H110" s="172"/>
+      <c r="H110" s="173"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="28">
@@ -26217,7 +26235,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H111" s="172"/>
+      <c r="H111" s="173"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="28">
@@ -26248,7 +26266,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H112" s="172"/>
+      <c r="H112" s="173"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="28">
@@ -26279,7 +26297,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H113" s="172"/>
+      <c r="H113" s="173"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="28">
@@ -26310,7 +26328,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H114" s="172"/>
+      <c r="H114" s="173"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="28">
@@ -26341,7 +26359,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H115" s="172"/>
+      <c r="H115" s="173"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="28">
@@ -26372,7 +26390,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H116" s="172"/>
+      <c r="H116" s="173"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="28">
@@ -26403,7 +26421,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H117" s="172"/>
+      <c r="H117" s="173"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="28">
@@ -26434,7 +26452,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H118" s="172"/>
+      <c r="H118" s="173"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="28">
@@ -26465,7 +26483,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H119" s="172"/>
+      <c r="H119" s="173"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="28">
@@ -26496,7 +26514,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H120" s="172"/>
+      <c r="H120" s="173"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="137">
@@ -26527,7 +26545,7 @@
         <f>Häufigkeiten!M$103</f>
         <v>0.4</v>
       </c>
-      <c r="H121" s="173"/>
+      <c r="H121" s="174"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="28">
@@ -26558,7 +26576,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H122" s="171" t="s">
+      <c r="H122" s="172" t="s">
         <v>9</v>
       </c>
     </row>
@@ -26591,7 +26609,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H123" s="172"/>
+      <c r="H123" s="173"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="28">
@@ -26622,7 +26640,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H124" s="172"/>
+      <c r="H124" s="173"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="28">
@@ -26653,7 +26671,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H125" s="172"/>
+      <c r="H125" s="173"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="28">
@@ -26684,7 +26702,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H126" s="172"/>
+      <c r="H126" s="173"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="28">
@@ -26715,7 +26733,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H127" s="172"/>
+      <c r="H127" s="173"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="28">
@@ -26746,7 +26764,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H128" s="172"/>
+      <c r="H128" s="173"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="28">
@@ -26777,7 +26795,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H129" s="172"/>
+      <c r="H129" s="173"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="28">
@@ -26808,7 +26826,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H130" s="172"/>
+      <c r="H130" s="173"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="28">
@@ -26839,7 +26857,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H131" s="172"/>
+      <c r="H131" s="173"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="28">
@@ -26870,7 +26888,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H132" s="172"/>
+      <c r="H132" s="173"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="28">
@@ -26901,7 +26919,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H133" s="172"/>
+      <c r="H133" s="173"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="28">
@@ -26932,7 +26950,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H134" s="172"/>
+      <c r="H134" s="173"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="28">
@@ -26963,7 +26981,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H135" s="172"/>
+      <c r="H135" s="173"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="28">
@@ -26994,7 +27012,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H136" s="172"/>
+      <c r="H136" s="173"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="28">
@@ -27025,7 +27043,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H137" s="172"/>
+      <c r="H137" s="173"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="28">
@@ -27056,7 +27074,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H138" s="172"/>
+      <c r="H138" s="173"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="28">
@@ -27087,7 +27105,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H139" s="172"/>
+      <c r="H139" s="173"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="28">
@@ -27118,7 +27136,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H140" s="172"/>
+      <c r="H140" s="173"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="28">
@@ -27149,7 +27167,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H141" s="172"/>
+      <c r="H141" s="173"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="28">
@@ -27180,7 +27198,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H142" s="172"/>
+      <c r="H142" s="173"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="28">
@@ -27211,7 +27229,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H143" s="172"/>
+      <c r="H143" s="173"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="28">
@@ -27242,7 +27260,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H144" s="172"/>
+      <c r="H144" s="173"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="28">
@@ -27273,7 +27291,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H145" s="172"/>
+      <c r="H145" s="173"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="28">
@@ -27304,7 +27322,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H146" s="172"/>
+      <c r="H146" s="173"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="28">
@@ -27335,7 +27353,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H147" s="172"/>
+      <c r="H147" s="173"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="28">
@@ -27366,7 +27384,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H148" s="172"/>
+      <c r="H148" s="173"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="28">
@@ -27397,7 +27415,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H149" s="172"/>
+      <c r="H149" s="173"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="28">
@@ -27428,7 +27446,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H150" s="172"/>
+      <c r="H150" s="173"/>
     </row>
     <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="137">
@@ -27459,7 +27477,7 @@
         <f>Häufigkeiten!$M$137</f>
         <v>0.12</v>
       </c>
-      <c r="H151" s="173"/>
+      <c r="H151" s="174"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="28">
@@ -27490,7 +27508,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H152" s="171" t="s">
+      <c r="H152" s="172" t="s">
         <v>10</v>
       </c>
     </row>
@@ -27523,7 +27541,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H153" s="172"/>
+      <c r="H153" s="173"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="28">
@@ -27554,7 +27572,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H154" s="172"/>
+      <c r="H154" s="173"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="28">
@@ -27585,7 +27603,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H155" s="172"/>
+      <c r="H155" s="173"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="28">
@@ -27616,7 +27634,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H156" s="172"/>
+      <c r="H156" s="173"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="28">
@@ -27647,7 +27665,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H157" s="172"/>
+      <c r="H157" s="173"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="28">
@@ -27678,7 +27696,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H158" s="172"/>
+      <c r="H158" s="173"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="28">
@@ -27709,7 +27727,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H159" s="172"/>
+      <c r="H159" s="173"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="28">
@@ -27740,7 +27758,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H160" s="172"/>
+      <c r="H160" s="173"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="28">
@@ -27771,7 +27789,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H161" s="172"/>
+      <c r="H161" s="173"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="28">
@@ -27802,7 +27820,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H162" s="172"/>
+      <c r="H162" s="173"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="28">
@@ -27833,7 +27851,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H163" s="172"/>
+      <c r="H163" s="173"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="28">
@@ -27864,7 +27882,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H164" s="172"/>
+      <c r="H164" s="173"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="28">
@@ -27895,7 +27913,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H165" s="172"/>
+      <c r="H165" s="173"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="28">
@@ -27926,7 +27944,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H166" s="172"/>
+      <c r="H166" s="173"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="28">
@@ -27957,7 +27975,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H167" s="172"/>
+      <c r="H167" s="173"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="28">
@@ -27988,7 +28006,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H168" s="172"/>
+      <c r="H168" s="173"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="28">
@@ -28019,7 +28037,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H169" s="172"/>
+      <c r="H169" s="173"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="28">
@@ -28050,7 +28068,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H170" s="172"/>
+      <c r="H170" s="173"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="28">
@@ -28081,7 +28099,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H171" s="172"/>
+      <c r="H171" s="173"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="28">
@@ -28112,7 +28130,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H172" s="172"/>
+      <c r="H172" s="173"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="28">
@@ -28143,7 +28161,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H173" s="172"/>
+      <c r="H173" s="173"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="28">
@@ -28174,7 +28192,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H174" s="172"/>
+      <c r="H174" s="173"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="28">
@@ -28205,7 +28223,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H175" s="172"/>
+      <c r="H175" s="173"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="28">
@@ -28236,7 +28254,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H176" s="172"/>
+      <c r="H176" s="173"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="28">
@@ -28267,7 +28285,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H177" s="172"/>
+      <c r="H177" s="173"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="28">
@@ -28298,7 +28316,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H178" s="172"/>
+      <c r="H178" s="173"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="28">
@@ -28329,7 +28347,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H179" s="172"/>
+      <c r="H179" s="173"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="28">
@@ -28360,7 +28378,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H180" s="172"/>
+      <c r="H180" s="173"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="137">
@@ -28391,7 +28409,7 @@
         <f>Häufigkeiten!M$171</f>
         <v>0.77</v>
       </c>
-      <c r="H181" s="173"/>
+      <c r="H181" s="174"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="28">
@@ -28422,7 +28440,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H182" s="171" t="s">
+      <c r="H182" s="172" t="s">
         <v>37</v>
       </c>
     </row>
@@ -28455,7 +28473,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H183" s="172"/>
+      <c r="H183" s="173"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="28">
@@ -28486,7 +28504,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H184" s="172"/>
+      <c r="H184" s="173"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="28">
@@ -28517,7 +28535,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H185" s="172"/>
+      <c r="H185" s="173"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="28">
@@ -28548,7 +28566,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H186" s="172"/>
+      <c r="H186" s="173"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="28">
@@ -28579,7 +28597,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H187" s="172"/>
+      <c r="H187" s="173"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="28">
@@ -28610,7 +28628,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H188" s="172"/>
+      <c r="H188" s="173"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="28">
@@ -28641,7 +28659,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H189" s="172"/>
+      <c r="H189" s="173"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="28">
@@ -28672,7 +28690,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H190" s="172"/>
+      <c r="H190" s="173"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="28">
@@ -28703,7 +28721,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H191" s="172"/>
+      <c r="H191" s="173"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="28">
@@ -28734,7 +28752,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H192" s="172"/>
+      <c r="H192" s="173"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="28">
@@ -28765,7 +28783,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H193" s="172"/>
+      <c r="H193" s="173"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="28">
@@ -28796,7 +28814,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H194" s="172"/>
+      <c r="H194" s="173"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="28">
@@ -28827,7 +28845,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H195" s="172"/>
+      <c r="H195" s="173"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="28">
@@ -28858,7 +28876,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H196" s="172"/>
+      <c r="H196" s="173"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="28">
@@ -28889,7 +28907,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H197" s="172"/>
+      <c r="H197" s="173"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="28">
@@ -28920,7 +28938,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H198" s="172"/>
+      <c r="H198" s="173"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="28">
@@ -28951,7 +28969,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H199" s="172"/>
+      <c r="H199" s="173"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="28">
@@ -28982,7 +29000,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H200" s="172"/>
+      <c r="H200" s="173"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="28">
@@ -29013,7 +29031,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H201" s="172"/>
+      <c r="H201" s="173"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="28">
@@ -29044,7 +29062,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H202" s="172"/>
+      <c r="H202" s="173"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="28">
@@ -29075,7 +29093,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H203" s="172"/>
+      <c r="H203" s="173"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="28">
@@ -29106,7 +29124,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H204" s="172"/>
+      <c r="H204" s="173"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="28">
@@ -29137,7 +29155,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H205" s="172"/>
+      <c r="H205" s="173"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="28">
@@ -29168,7 +29186,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H206" s="172"/>
+      <c r="H206" s="173"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="28">
@@ -29199,7 +29217,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H207" s="172"/>
+      <c r="H207" s="173"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="28">
@@ -29230,7 +29248,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H208" s="172"/>
+      <c r="H208" s="173"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="28">
@@ -29261,7 +29279,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H209" s="172"/>
+      <c r="H209" s="173"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="28">
@@ -29292,7 +29310,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H210" s="172"/>
+      <c r="H210" s="173"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="142">
@@ -29323,7 +29341,7 @@
         <f>Häufigkeiten!M$205</f>
         <v>0.5</v>
       </c>
-      <c r="H211" s="173"/>
+      <c r="H211" s="174"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="28">
@@ -29354,7 +29372,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H212" s="171" t="s">
+      <c r="H212" s="172" t="s">
         <v>12</v>
       </c>
     </row>
@@ -29387,7 +29405,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H213" s="172"/>
+      <c r="H213" s="173"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="28">
@@ -29418,7 +29436,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H214" s="172"/>
+      <c r="H214" s="173"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="28">
@@ -29449,7 +29467,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H215" s="172"/>
+      <c r="H215" s="173"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="28">
@@ -29480,7 +29498,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H216" s="172"/>
+      <c r="H216" s="173"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="28">
@@ -29511,7 +29529,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H217" s="172"/>
+      <c r="H217" s="173"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="28">
@@ -29542,7 +29560,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H218" s="172"/>
+      <c r="H218" s="173"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="28">
@@ -29573,7 +29591,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H219" s="172"/>
+      <c r="H219" s="173"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="28">
@@ -29604,7 +29622,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H220" s="172"/>
+      <c r="H220" s="173"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="28">
@@ -29635,7 +29653,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H221" s="172"/>
+      <c r="H221" s="173"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="28">
@@ -29666,7 +29684,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H222" s="172"/>
+      <c r="H222" s="173"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="28">
@@ -29697,7 +29715,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H223" s="172"/>
+      <c r="H223" s="173"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="28">
@@ -29728,7 +29746,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H224" s="172"/>
+      <c r="H224" s="173"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="28">
@@ -29759,7 +29777,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H225" s="172"/>
+      <c r="H225" s="173"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="28">
@@ -29790,7 +29808,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H226" s="172"/>
+      <c r="H226" s="173"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="28">
@@ -29821,7 +29839,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H227" s="172"/>
+      <c r="H227" s="173"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="28">
@@ -29852,7 +29870,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H228" s="172"/>
+      <c r="H228" s="173"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="28">
@@ -29883,7 +29901,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H229" s="172"/>
+      <c r="H229" s="173"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="28">
@@ -29914,7 +29932,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H230" s="172"/>
+      <c r="H230" s="173"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="28">
@@ -29945,7 +29963,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H231" s="172"/>
+      <c r="H231" s="173"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="28">
@@ -29976,7 +29994,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H232" s="172"/>
+      <c r="H232" s="173"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="28">
@@ -30007,7 +30025,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H233" s="172"/>
+      <c r="H233" s="173"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="28">
@@ -30038,7 +30056,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H234" s="172"/>
+      <c r="H234" s="173"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="28">
@@ -30069,7 +30087,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H235" s="172"/>
+      <c r="H235" s="173"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="28">
@@ -30100,7 +30118,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H236" s="172"/>
+      <c r="H236" s="173"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="28">
@@ -30131,7 +30149,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H237" s="172"/>
+      <c r="H237" s="173"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="28">
@@ -30162,7 +30180,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H238" s="172"/>
+      <c r="H238" s="173"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="28">
@@ -30193,7 +30211,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H239" s="172"/>
+      <c r="H239" s="173"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="28">
@@ -30224,7 +30242,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H240" s="172"/>
+      <c r="H240" s="173"/>
     </row>
     <row r="241" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="142">
@@ -30255,7 +30273,7 @@
         <f>Häufigkeiten!M$239</f>
         <v>5.5E-2</v>
       </c>
-      <c r="H241" s="173"/>
+      <c r="H241" s="174"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="28">
@@ -30286,7 +30304,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H242" s="171" t="s">
+      <c r="H242" s="172" t="s">
         <v>13</v>
       </c>
     </row>
@@ -30319,7 +30337,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H243" s="172"/>
+      <c r="H243" s="173"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="28">
@@ -30350,7 +30368,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H244" s="172"/>
+      <c r="H244" s="173"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="28">
@@ -30381,7 +30399,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H245" s="172"/>
+      <c r="H245" s="173"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="28">
@@ -30412,7 +30430,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H246" s="172"/>
+      <c r="H246" s="173"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="28">
@@ -30443,7 +30461,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H247" s="172"/>
+      <c r="H247" s="173"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="28">
@@ -30474,7 +30492,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H248" s="172"/>
+      <c r="H248" s="173"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="28">
@@ -30505,7 +30523,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H249" s="172"/>
+      <c r="H249" s="173"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="28">
@@ -30536,7 +30554,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H250" s="172"/>
+      <c r="H250" s="173"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="28">
@@ -30567,7 +30585,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H251" s="172"/>
+      <c r="H251" s="173"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="28">
@@ -30598,7 +30616,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H252" s="172"/>
+      <c r="H252" s="173"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="28">
@@ -30629,7 +30647,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H253" s="172"/>
+      <c r="H253" s="173"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="28">
@@ -30660,7 +30678,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H254" s="172"/>
+      <c r="H254" s="173"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="28">
@@ -30691,7 +30709,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H255" s="172"/>
+      <c r="H255" s="173"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="28">
@@ -30722,7 +30740,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H256" s="172"/>
+      <c r="H256" s="173"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="28">
@@ -30753,7 +30771,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H257" s="172"/>
+      <c r="H257" s="173"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="28">
@@ -30784,7 +30802,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H258" s="172"/>
+      <c r="H258" s="173"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="28">
@@ -30815,7 +30833,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H259" s="172"/>
+      <c r="H259" s="173"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="28">
@@ -30846,7 +30864,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H260" s="172"/>
+      <c r="H260" s="173"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="28">
@@ -30877,7 +30895,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H261" s="172"/>
+      <c r="H261" s="173"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="28">
@@ -30908,7 +30926,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H262" s="172"/>
+      <c r="H262" s="173"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="28">
@@ -30939,7 +30957,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H263" s="172"/>
+      <c r="H263" s="173"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="28">
@@ -30970,7 +30988,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H264" s="172"/>
+      <c r="H264" s="173"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="28">
@@ -31001,7 +31019,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H265" s="172"/>
+      <c r="H265" s="173"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="28">
@@ -31032,7 +31050,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H266" s="172"/>
+      <c r="H266" s="173"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="28">
@@ -31063,7 +31081,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H267" s="172"/>
+      <c r="H267" s="173"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="28">
@@ -31094,7 +31112,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H268" s="172"/>
+      <c r="H268" s="173"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="28">
@@ -31125,7 +31143,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H269" s="172"/>
+      <c r="H269" s="173"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="28">
@@ -31156,7 +31174,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H270" s="172"/>
+      <c r="H270" s="173"/>
     </row>
     <row r="271" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="142">
@@ -31187,7 +31205,7 @@
         <f>Häufigkeiten!M$273</f>
         <v>0.16919999999999999</v>
       </c>
-      <c r="H271" s="173"/>
+      <c r="H271" s="174"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="28">
@@ -31218,7 +31236,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H272" s="171" t="s">
+      <c r="H272" s="172" t="s">
         <v>14</v>
       </c>
     </row>
@@ -31251,7 +31269,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H273" s="172"/>
+      <c r="H273" s="173"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="28">
@@ -31282,7 +31300,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H274" s="172"/>
+      <c r="H274" s="173"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="28">
@@ -31313,7 +31331,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H275" s="172"/>
+      <c r="H275" s="173"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="28">
@@ -31344,7 +31362,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H276" s="172"/>
+      <c r="H276" s="173"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="28">
@@ -31375,7 +31393,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H277" s="172"/>
+      <c r="H277" s="173"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="28">
@@ -31406,7 +31424,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H278" s="172"/>
+      <c r="H278" s="173"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="28">
@@ -31437,7 +31455,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H279" s="172"/>
+      <c r="H279" s="173"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="28">
@@ -31457,8 +31475,7 @@
         <v>5</v>
       </c>
       <c r="E280" s="31">
-        <f>Häufigkeiten!J317</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F280" s="32">
         <f>Häufigkeiten!L317</f>
@@ -31468,7 +31485,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H280" s="172"/>
+      <c r="H280" s="173"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="28">
@@ -31499,7 +31516,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H281" s="172"/>
+      <c r="H281" s="173"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="28">
@@ -31530,7 +31547,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H282" s="172"/>
+      <c r="H282" s="173"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="28">
@@ -31561,7 +31578,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H283" s="172"/>
+      <c r="H283" s="173"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="28">
@@ -31592,7 +31609,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H284" s="172"/>
+      <c r="H284" s="173"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="28">
@@ -31623,7 +31640,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H285" s="172"/>
+      <c r="H285" s="173"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="28">
@@ -31654,7 +31671,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H286" s="172"/>
+      <c r="H286" s="173"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="28">
@@ -31685,7 +31702,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H287" s="172"/>
+      <c r="H287" s="173"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="28">
@@ -31716,7 +31733,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H288" s="172"/>
+      <c r="H288" s="173"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="28">
@@ -31747,7 +31764,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H289" s="172"/>
+      <c r="H289" s="173"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="28">
@@ -31778,7 +31795,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H290" s="172"/>
+      <c r="H290" s="173"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="28">
@@ -31809,7 +31826,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H291" s="172"/>
+      <c r="H291" s="173"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="28">
@@ -31840,7 +31857,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H292" s="172"/>
+      <c r="H292" s="173"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="28">
@@ -31871,7 +31888,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H293" s="172"/>
+      <c r="H293" s="173"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="28">
@@ -31902,7 +31919,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H294" s="172"/>
+      <c r="H294" s="173"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="28">
@@ -31933,7 +31950,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H295" s="172"/>
+      <c r="H295" s="173"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="28">
@@ -31964,7 +31981,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H296" s="172"/>
+      <c r="H296" s="173"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="28">
@@ -31995,7 +32012,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H297" s="172"/>
+      <c r="H297" s="173"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="28">
@@ -32026,7 +32043,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H298" s="172"/>
+      <c r="H298" s="173"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="28">
@@ -32057,7 +32074,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H299" s="172"/>
+      <c r="H299" s="173"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="28">
@@ -32088,7 +32105,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H300" s="172"/>
+      <c r="H300" s="173"/>
     </row>
     <row r="301" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="142">
@@ -32119,7 +32136,7 @@
         <f>Häufigkeiten!M$307</f>
         <v>0.6</v>
       </c>
-      <c r="H301" s="173"/>
+      <c r="H301" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="10">
